--- a/wikipedia_validation_sheets/Normal pressure hydrocephalus DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Normal pressure hydrocephalus DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4742E453-5F9F-1E4F-B8A2-35B89C72370C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603004D-0DAD-804E-B48E-02E5A92BD70F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="460" windowWidth="25600" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43580" yWindow="1980" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="174">
   <si>
     <t>Normal pressure hydrocephalus</t>
   </si>
@@ -406,9 +414,6 @@
     <t>Adams triad or Hakim's triad</t>
   </si>
   <si>
-    <t>urinary incontinence</t>
-  </si>
-  <si>
     <t>dementia</t>
   </si>
   <si>
@@ -455,13 +460,106 @@
   </si>
   <si>
     <t>increased tendency to fall backwards</t>
+  </si>
+  <si>
+    <t>astasia, abasia</t>
+  </si>
+  <si>
+    <t>Astasia-abasia</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>urinary, incontinence</t>
+  </si>
+  <si>
+    <t>Urinary incontinence</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>Inattention</t>
+  </si>
+  <si>
+    <t>tumour</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>memory, problems</t>
+  </si>
+  <si>
+    <t>Memory impairment</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>convolutional, atrophy</t>
+  </si>
+  <si>
+    <t>Frontotemporal degeneration</t>
+  </si>
+  <si>
+    <t>thinking, thought</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>contractions</t>
+  </si>
+  <si>
+    <t>Contraction (finding)</t>
+  </si>
+  <si>
+    <t>reflected</t>
+  </si>
+  <si>
+    <t>Reflecting</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>recognition</t>
+  </si>
+  <si>
+    <t>Recognition</t>
+  </si>
+  <si>
+    <t>detrusor, instability</t>
+  </si>
+  <si>
+    <t>Detrusor instability</t>
+  </si>
+  <si>
+    <t>Presenile dementia</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>Complication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -481,6 +579,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,6 +874,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1101,16 +1209,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AABDF-0980-3744-8F8E-568C40ED8589}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -1120,34 +1228,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1177,13 +1285,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>5</v>
@@ -1201,21 +1309,21 @@
         <v>124</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10" t="b">
         <v>1</v>
@@ -1230,21 +1338,21 @@
         <v>124</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="b">
         <v>1</v>
@@ -1264,13 +1372,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
@@ -1288,21 +1396,21 @@
         <v>124</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10" t="b">
         <v>1</v>
@@ -1317,21 +1425,21 @@
         <v>124</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" s="10" t="b">
         <v>1</v>
@@ -1346,18 +1454,18 @@
         <v>124</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
@@ -1375,21 +1483,21 @@
         <v>124</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10" t="b">
         <v>1</v>
@@ -1404,21 +1512,21 @@
         <v>124</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E12" s="10" t="b">
         <v>1</v>
@@ -1433,21 +1541,21 @@
         <v>124</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E13" s="10" t="b">
         <v>1</v>
@@ -1462,21 +1570,21 @@
         <v>124</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10" t="b">
         <v>1</v>
@@ -1491,21 +1599,21 @@
         <v>124</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10" t="b">
         <v>1</v>
@@ -1520,21 +1628,21 @@
         <v>124</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10" t="b">
         <v>1</v>
@@ -1549,21 +1657,21 @@
         <v>124</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="10" t="b">
         <v>1</v>
@@ -1583,16 +1691,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E18" s="10" t="b">
         <v>1</v>
@@ -1607,21 +1715,21 @@
         <v>124</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E19" s="10" t="b">
         <v>1</v>
@@ -1636,21 +1744,21 @@
         <v>124</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="E20" s="10" t="b">
         <v>1</v>
@@ -1665,21 +1773,21 @@
         <v>124</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>1</v>
@@ -1694,18 +1802,18 @@
         <v>124</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>5</v>
@@ -1723,21 +1831,21 @@
         <v>124</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="10" t="b">
         <v>1</v>
@@ -1752,21 +1860,21 @@
         <v>124</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E24" s="10" t="b">
         <v>1</v>
@@ -1781,21 +1889,21 @@
         <v>124</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E25" s="10" t="b">
         <v>1</v>
@@ -1815,13 +1923,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
@@ -1844,13 +1952,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
@@ -1873,16 +1981,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="10" t="b">
         <v>0</v>
@@ -1902,16 +2010,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="10" t="b">
         <v>0</v>
@@ -1926,18 +2034,18 @@
         <v>125</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>5</v>
@@ -1960,13 +2068,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>13</v>
@@ -1989,16 +2097,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="10" t="b">
         <v>0</v>
@@ -2013,21 +2121,21 @@
         <v>125</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E33" s="10" t="b">
         <v>0</v>
@@ -2042,18 +2150,18 @@
         <v>125</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>13</v>
@@ -2076,13 +2184,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>13</v>
@@ -2105,16 +2213,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E36" s="10" t="b">
         <v>0</v>
@@ -2134,13 +2242,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>13</v>
@@ -2163,13 +2271,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>13</v>
@@ -2192,16 +2300,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="10" t="b">
         <v>0</v>
@@ -2221,16 +2329,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" s="10" t="b">
         <v>0</v>
@@ -2245,21 +2353,21 @@
         <v>125</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41" s="10" t="b">
         <v>0</v>
@@ -2274,21 +2382,21 @@
         <v>125</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E42" s="10" t="b">
         <v>0</v>
@@ -2303,18 +2411,18 @@
         <v>125</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>20</v>
@@ -2337,16 +2445,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E44" s="10" t="b">
         <v>0</v>
@@ -2366,13 +2474,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
@@ -2395,13 +2503,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>13</v>
@@ -2419,21 +2527,21 @@
         <v>125</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E47" s="10" t="b">
         <v>0</v>
@@ -2453,13 +2561,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>13</v>
@@ -2482,16 +2590,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E49" s="10" t="b">
         <v>0</v>
@@ -2511,16 +2619,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E50" s="10" t="b">
         <v>0</v>
@@ -2540,16 +2648,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E51" s="10" t="b">
         <v>0</v>
@@ -2564,21 +2672,21 @@
         <v>125</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E52" s="10" t="b">
         <v>0</v>
@@ -2598,16 +2706,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="10" t="b">
         <v>0</v>
@@ -2627,13 +2735,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>5</v>
@@ -2656,13 +2764,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>13</v>
@@ -2685,16 +2793,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E56" s="10" t="b">
         <v>0</v>
@@ -2714,13 +2822,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>13</v>
@@ -2742,318 +2850,453 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
       <c r="B59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -3071,10 +3314,340 @@
         <v>2</v>
       </c>
     </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{A5CEFA10-9BF2-E243-862B-B04CED0AA54F}">
     <sortState ref="A4:I57">
-      <sortCondition descending="1" ref="E3:E57"/>
+      <sortCondition ref="A3:A57"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
